--- a/BOM/Lineux_DB_Vzbot_Bom.xlsx
+++ b/BOM/Lineux_DB_Vzbot_Bom.xlsx
@@ -103,7 +103,7 @@
     <t>mr63zz bearing</t>
   </si>
   <si>
-    <t>10 x 5mm N52 Magnet</t>
+    <t>10 x 5mm Magnet</t>
   </si>
   <si>
     <t>Toolhead</t>
